--- a/Day01/RegresiLinear.xlsx
+++ b/Day01/RegresiLinear.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Purwadhika/Coding/MODUL3/Day01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25D3DD-50E6-404D-82A3-B7A91CFF4AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B2FAF-2989-6D4B-AC87-FC9E4EE26A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" xr2:uid="{DBB11856-6D39-8A40-B354-452F2E679AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$2:$C$6</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>mesinMobil x</t>
-  </si>
-  <si>
-    <t>hargaMobil y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>x^2</t>
   </si>
@@ -64,14 +54,107 @@
     <t>a/c/tpotY</t>
   </si>
   <si>
-    <t>y bestfit line</t>
+    <t>r/correlation/co-relation</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y'</t>
+  </si>
+  <si>
+    <t>|y - y'|</t>
+  </si>
+  <si>
+    <t>Matrix Linear Regression Evaluation</t>
+  </si>
+  <si>
+    <t>max error</t>
+  </si>
+  <si>
+    <t>Mesin</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Residual Error</t>
+  </si>
+  <si>
+    <t>Mean Absolute Error</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>(y - y') ^2</t>
+  </si>
+  <si>
+    <t>Root Mean Squared Error</t>
+  </si>
+  <si>
+    <t>Median Absolute Error</t>
+  </si>
+  <si>
+    <t>Mean Squared Logarithmic Error</t>
+  </si>
+  <si>
+    <t>elog(1 + y)</t>
+  </si>
+  <si>
+    <t>elog(1 + y')</t>
+  </si>
+  <si>
+    <t>R2 Score</t>
+  </si>
+  <si>
+    <t>Coef of Determination</t>
+  </si>
+  <si>
+    <t>1 - (MSE Model / MSE Baseline)</t>
+  </si>
+  <si>
+    <t>|y - avgy|</t>
+  </si>
+  <si>
+    <t>|y - avgy| ^2</t>
+  </si>
+  <si>
+    <t>RMSLE</t>
+  </si>
+  <si>
+    <t>(elog(1 + y) - elog(1 + y')) ^2</t>
+  </si>
+  <si>
+    <t>% error</t>
+  </si>
+  <si>
+    <t>Mean Absolute Percentage Error</t>
+  </si>
+  <si>
+    <t>%error ^ 2</t>
+  </si>
+  <si>
+    <t>Mean Squared Percentage Error</t>
+  </si>
+  <si>
+    <t>dekat dengan MSLE</t>
+  </si>
+  <si>
+    <t>dekat dengan RMSLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,13 +162,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,8 +221,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,16 +270,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>364938</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420221</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -161,8 +308,208 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5664200" y="63500"/>
-          <a:ext cx="2908300" cy="1231900"/>
+          <a:off x="3390526" y="1911350"/>
+          <a:ext cx="1885577" cy="811582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>451595</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>693054</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56403</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7130AEF3-9BD4-5044-B179-E87AE55616A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5307477" y="1858308"/>
+          <a:ext cx="2025062" cy="1074271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>399971</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>364192</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6804ACEE-D81D-B64B-9AA1-3A4F71C7680C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3425559" y="2857500"/>
+          <a:ext cx="1794515" cy="620094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>550954</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550956</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72970E59-4135-2041-A333-A78FC656C3FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5406836" y="2876764"/>
+          <a:ext cx="1783605" cy="491742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>130736</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>644338</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147F5FF3-FD38-814C-949F-25E0A6DCB593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591986" y="2073087"/>
+          <a:ext cx="2978896" cy="611056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327114FF-B4ED-8240-AEED-89CF6E407ADA}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="136" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,219 +832,612 @@
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <f>B3^2</f>
+        <v>1000000</v>
+      </c>
+      <c r="E3" s="2">
+        <f>C3^2</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3*C3</f>
+        <v>10000</v>
+      </c>
+      <c r="G3" s="2">
+        <f>$B$11*B3+$B$14</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <f>ABS(C3-G3)</f>
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I3" s="2">
+        <f>(C3-G3)^2</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J3" s="2">
+        <f>ABS(C3-AVERAGE($C$3:$C$7))</f>
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <f>J3^2</f>
+        <v>961</v>
+      </c>
+      <c r="L3" s="2">
+        <f>LN(1+C3)</f>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="M3" s="2">
+        <f>LN(1+G3)</f>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="N3" s="2">
+        <f>(L3-M3)^2</f>
+        <v>0.10141277886331614</v>
+      </c>
+      <c r="O3" s="8">
+        <f>ABS(C3-G3)/C3</f>
+        <v>0.3</v>
+      </c>
+      <c r="P3" s="8">
+        <f>O3^2</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D7" si="0">B4^2</f>
+        <v>4000000</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E7" si="1">C4^2</f>
+        <v>625</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F7" si="2">B4*C4</f>
+        <v>50000</v>
+      </c>
+      <c r="G4" s="2">
+        <f>$B$11*B4+$B$14</f>
+        <v>24</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H7" si="3">ABS(C4-G4)</f>
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <f>B2^2</f>
-        <v>1000000</v>
-      </c>
-      <c r="E2">
-        <f>C2^2</f>
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <f>B2*C2</f>
-        <v>10000</v>
-      </c>
-      <c r="G2">
-        <f>$B$10*B2+$B$12</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3^2</f>
-        <v>4000000</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">C3^2</f>
-        <v>625</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="2">B3*C3</f>
-        <v>50000</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" si="3">$B$10*B3+$B$12</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="I4" s="2">
+        <f>(C4-G4)^2</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J7" si="4">ABS(C4-AVERAGE($C$3:$C$7))</f>
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K7" si="5">J4^2</f>
+        <v>256</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L7" si="6">LN(1+C4)</f>
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M7" si="7">LN(1+G4)</f>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N7" si="8">(L4-M4)^2</f>
+        <v>1.5382643402519942E-3</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" ref="O4:O7" si="9">ABS(C4-G4)/C4</f>
+        <v>0.04</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4:P7" si="10">O4^2</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
         <v>3000</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="2">
         <v>35</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>1225</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
         <v>105000</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="2">
+        <f>$B$11*B5+$B$14</f>
+        <v>41.000000000000007</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="3"/>
-        <v>41.000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+        <v>6.0000000000000071</v>
+      </c>
+      <c r="I5" s="2">
+        <f>(C5-G5)^2</f>
+        <v>36.000000000000085</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="7"/>
+        <v>3.7376696182833684</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="8"/>
+        <v>2.3762432091205959E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="9"/>
+        <v>0.17142857142857162</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="10"/>
+        <v>2.9387755102040884E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="2">
         <v>4000</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="2">
         <v>55</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>3025</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
         <v>220000</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="2">
+        <f>$B$11*B6+$B$14</f>
+        <v>58</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <f>(C6-G6)^2</f>
+        <v>9</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="6"/>
+        <v>4.0253516907351496</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="7"/>
+        <v>4.0775374439057197</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="8"/>
+        <v>2.7233528339796632E-3</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="9"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="10"/>
+        <v>2.9752066115702478E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>5000</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="2">
         <v>80</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>25000000</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="2">
+        <f>$B$11*B7+$B$14</f>
+        <v>75</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <f>SUM(B2:B6)</f>
+      <c r="I7" s="2">
+        <f>(C7-G7)^2</f>
+        <v>25</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>1521</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="6"/>
+        <v>4.3944491546724391</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="7"/>
+        <v>4.3307333402863311</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="8"/>
+        <v>4.0597050028849764E-3</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="10"/>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUM(B3:B7)</f>
         <v>15000</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:F7" si="4">SUM(C2:C6)</f>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:P8" si="11">SUM(C3:C7)</f>
         <v>205</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="4"/>
+      <c r="D8" s="5">
+        <f t="shared" si="11"/>
         <v>55000000</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="4"/>
+      <c r="E8" s="5">
+        <f t="shared" si="11"/>
         <v>11375</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="4"/>
+      <c r="F8" s="5">
+        <f t="shared" si="11"/>
         <v>785000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="G8" s="5">
+        <f t="shared" si="11"/>
+        <v>205</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="11"/>
+        <v>18.000000000000007</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="11"/>
+        <v>80.000000000000085</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="11"/>
+        <v>106</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="11"/>
+        <v>2970</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="11"/>
+        <v>17.659311594683551</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="11"/>
+        <v>17.444257769023459</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="11"/>
+        <v>0.13349653313163873</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="11"/>
+        <v>0.62847402597402613</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="11"/>
+        <v>0.12786921171361113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>((5*F8)-(B8*C8))/((5*D8)-(B8^2))</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <f>SLOPE(C3:C7,B3:B7)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>((C8*D8)-(B8*F8))/((5*D8)-(B8^2))</f>
+        <v>-10</v>
+      </c>
+      <c r="C14">
+        <f>INTERCEPT(C3:C7,B3:B7)</f>
+        <v>-10.000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <f>((5*F7)-(B7*C7))/((5*D7)-(B7^2))</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C10">
-        <f>SLOPE(C2:C6,B2:B6)</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f>((C7*D7)-(B7*F7))/((5*D7)-(B7^2))</f>
-        <v>-10</v>
-      </c>
-      <c r="C12">
-        <f>INTERCEPT(C2:C6,B2:B6)</f>
-        <v>-10.000000000000007</v>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>((5*F8)-(B8*C8))/(SQRT((5*D8-B8^2)*(5*E8-C8^2)))</f>
+        <v>0.98644005041562111</v>
+      </c>
+      <c r="C17">
+        <f>CORREL(B3:B7,C3:C7)</f>
+        <v>0.98644005041562099</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <f>MAX(H3:H7)</f>
+        <v>6.0000000000000071</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>AVERAGE(H3:H7)</f>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f>AVERAGE(I3:I7)</f>
+        <v>16.000000000000018</v>
+      </c>
+      <c r="D26">
+        <f>SQRT(B26)</f>
+        <v>4.0000000000000018</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>MEDIAN(H3:H7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f>AVERAGE(N3:N7)</f>
+        <v>2.6699306626327746E-2</v>
+      </c>
+      <c r="E32">
+        <f>SQRT(B32)</f>
+        <v>0.16339922468092602</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="9">
+        <f>AVERAGE(O3:O7)</f>
+        <v>0.12569480519480522</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f>1-(I8/K8)</f>
+        <v>0.97306397306397308</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="9">
+        <f>AVERAGE(P3:P7)</f>
+        <v>2.5573842342722225E-2</v>
       </c>
     </row>
   </sheetData>
